--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T10:43:57+00:00</t>
+    <t>2025-12-01T15:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T15:11:53+00:00</t>
+    <t>2025-12-12T08:49:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:49:52+00:00</t>
+    <t>2025-12-15T10:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:46:18+00:00</t>
+    <t>2025-12-29T09:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:30:07+00:00</t>
+    <t>2026-01-06T09:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-06T09:52:49+00:00</t>
+    <t>2026-01-09T09:46:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:46:42+00:00</t>
+    <t>2026-01-09T15:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:11:14+00:00</t>
+    <t>2026-01-12T08:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T08:14:34+00:00</t>
+    <t>2026-01-12T10:24:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:24:42+00:00</t>
+    <t>2026-01-12T13:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/fr-patient</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/fr-patient</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T13:47:14+00:00</t>
+    <t>2026-01-15T15:19:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -462,7 +462,7 @@
     <t>eyecolor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/EyeColor}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/nde/StructureDefinition/EyeColor}
 </t>
   </si>
   <si>
@@ -865,7 +865,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/ModifiedAdministrativeGender</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/ValueSet/ModifiedAdministrativeGender</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -1737,7 +1737,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="65.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1752,7 +1752,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.7265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:19:04+00:00</t>
+    <t>2026-01-16T10:54:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:54:22+00:00</t>
+    <t>2026-01-21T08:55:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:55:38+00:00</t>
+    <t>2026-01-21T09:19:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
+++ b/ajout-ST/ig/StructureDefinition-fr-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T09:19:10+00:00</t>
+    <t>2026-01-23T10:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
